--- a/Cubetto2Code/業務報告/業務報告.xlsx
+++ b/Cubetto2Code/業務報告/業務報告.xlsx
@@ -11,16 +11,119 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>初コミット</t>
-    <rPh sb="0" eb="1">
-      <t>ハツ</t>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入者</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回作業予定</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitの公開方法の確認
+・Gitのツールダウンロード・インストール</t>
+    <rPh sb="5" eb="7">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・懸案事項（課題管理表）の作成
+・Gitの操作方法確認</t>
+    <rPh sb="1" eb="3">
+      <t>ケンアン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -45,15 +148,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -61,12 +170,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -368,16 +681,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="34" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42914</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A28" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Cubetto2Code/業務報告/業務報告.xlsx
+++ b/Cubetto2Code/業務報告/業務報告.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -125,6 +125,18 @@
     <rPh sb="2" eb="3">
       <t>ラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の作業報告
+・Gitのダウンロード・インストール手順の確認
+・Gitのクライアントツール（TortoiseGit）のダウンロード・インストール方法確認
+・GitHubの使用方法の確認
+・Gitのクライアントツール（TortoiseGit）の操作手順の確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitの公開方法の確認</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -331,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -350,12 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -379,6 +385,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +711,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,29 +719,29 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="62.625" customWidth="1"/>
     <col min="5" max="5" width="34" style="7" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -729,23 +756,31 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A28" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="17">
+        <v>42915</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -753,10 +788,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -764,10 +799,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -775,10 +810,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -786,10 +821,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -797,10 +832,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -808,10 +843,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -819,10 +854,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -830,10 +865,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -841,10 +876,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -852,10 +887,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -863,10 +898,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -874,10 +909,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -885,10 +920,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -896,10 +931,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -907,10 +942,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -918,10 +953,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -929,10 +964,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -940,10 +975,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -951,10 +986,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -962,10 +997,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -973,10 +1008,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -984,10 +1019,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -995,22 +1030,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Cubetto2Code/業務報告/業務報告.xlsx
+++ b/Cubetto2Code/業務報告/業務報告.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -128,15 +128,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本日の作業報告
-・Gitのダウンロード・インストール手順の確認
+    <t>・Gitのダウンロード・インストール手順の確認
 ・Gitのクライアントツール（TortoiseGit）のダウンロード・インストール方法確認
 ・GitHubの使用方法の確認
 ・Gitのクライアントツール（TortoiseGit）の操作手順の確認</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Gitの公開方法の確認</t>
+    <t>・GitHubの公開方法の確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GitHubで公開
+・Git、GitHub、TortoiseGitの情報共有</t>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョウユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +721,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,7 +774,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A28" si="0">ROW()-2</f>
         <v>2</v>
@@ -783,14 +793,20 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="17">
+        <v>42916</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
     </row>
